--- a/situation data1.xlsx
+++ b/situation data1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\SNU AI\기초 프로그래밍\project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sos04\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7A81D6-A045-412C-A29B-480685D9304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F471498-130F-4E2B-8405-AD94FB4EE32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B70EC527-A5C0-4987-A138-744291DBACC3}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B70EC527-A5C0-4987-A138-744291DBACC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,9 +85,6 @@
     <t>페인트 bL로 넓이가 am²인 벽을 칠하려고 합니다. 페인트 1L로 칠한 벽의 넓이는 몇 m²인지 구해 보세요.</t>
   </si>
   <si>
-    <t>피자 b판을 만드려면 치즈 akg가 필요합니다. 피자 1판을 만들기 위해 필요한 치즈는 몇 kg인지 구해 보세요.</t>
-  </si>
-  <si>
     <t>김치 bkg를 만드려면 고춧가루 akg가 필요합니다. 김치 1kg를 만들기 위해 필요한 고춧가루는 몇 kg인지 구해 보세요.</t>
   </si>
   <si>
@@ -98,31 +94,11 @@
     <t>길이가 일정한 연필 bcm의 무게가 ag입니다. 이 연필 1cm의 무게는 몇 g인지 구해 보세요.</t>
   </si>
   <si>
-    <t>d</t>
+    <t>축구공 무게는 akg이고 야구공 무게는 bkg이다. 축구공 무게는 야구공 무게의 몇 배인지 구해 보세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쿠키 1개를 만드는 데 밀가루 bkg이 필요합니다. 밀가루 akg으로 쿠키를 최대한 만들고 남는 밀가루의 양은 몇 kg인지 구해 보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈까스 1개를 만드는 데 돼지고기 bkg이 필요합니다. 돼지고기 bkg으로 돈까스를 최대한 만들고 남는 돼지고기의 양은 몇 kg인지 구해 보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도자기 1개를 만드는 데 점토 bkg이 필요합니다. 점토 akg으로 도자기를 최대한 만들고 남는 점토의 양은 몇 kg인지 구해 보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물 aL를 한 병에 bL씩 나누어 담을 때 물을 최대한 나누어 담고 남는 물의 양은 몇 L인지 구해 보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>줄 am를 한 번에 bm씩 잘라 매듭을 만들 때 매듭을 최대한 만들고 남는 줄의 길이는 몇 m인지 구해 보세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축구공 무게는 akg이고 야구공 무게는 bkg이다. 축구공 무게는 야구공 무게의 몇 배인지 구해 보세요.</t>
+    <t>bm² 넓이의 피자를 만드려면 치즈 akg가 필요합니다. 1m² 넓이의 피자를 만들기 위해 필요한 치즈는 몇 kg인지 구해 보세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,82 +463,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B7D572-DFBB-4F75-AA11-1985E1F2627D}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="130.69921875" customWidth="1"/>
+    <col min="2" max="2" width="130.6640625" customWidth="1"/>
     <col min="3" max="3" width="116.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -570,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -578,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -586,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -594,7 +552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -602,7 +560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -610,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -618,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -626,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -634,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -642,7 +600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -650,36 +608,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/situation data1.xlsx
+++ b/situation data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sos04\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F471498-130F-4E2B-8405-AD94FB4EE32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAF54EA-8792-4969-A9D0-CC73C4F98FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B70EC527-A5C0-4987-A138-744291DBACC3}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>페인트 bL로 넓이가 am²인 벽을 칠하려고 합니다. 페인트 1L로 칠한 벽의 넓이는 몇 m²인지 구해 보세요.</t>
   </si>
   <si>
-    <t>김치 bkg를 만드려면 고춧가루 akg가 필요합니다. 김치 1kg를 만들기 위해 필요한 고춧가루는 몇 kg인지 구해 보세요.</t>
-  </si>
-  <si>
     <t>굵기가 일정한 철근 bm의 무게가 akg입니다. 이 철근 1m의 무게는 몇 kg인지 구해 보세요.</t>
   </si>
   <si>
@@ -98,7 +95,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bm² 넓이의 피자를 만드려면 치즈 akg가 필요합니다. 1m² 넓이의 피자를 만들기 위해 필요한 치즈는 몇 kg인지 구해 보세요.</t>
+    <t>bm² 넓이의 피자를 만들려면 치즈 akg가 필요합니다. 1m² 넓이의 피자를 만들기 위해 필요한 치즈는 몇 kg인지 구해 보세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치 bkg를 만들려면 고춧가루 akg가 필요합니다. 김치 1kg를 만들기 위해 필요한 고춧가루는 몇 kg인지 구해 보세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +467,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -509,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -613,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -621,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -629,7 +630,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -637,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/situation data1.xlsx
+++ b/situation data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sos04\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAF54EA-8792-4969-A9D0-CC73C4F98FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1190664B-DCC2-4794-9E42-36E31D78CC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B70EC527-A5C0-4987-A138-744291DBACC3}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김치 bkg를 만들려면 고춧가루 akg가 필요합니다. 김치 1kg를 만들기 위해 필요한 고춧가루는 몇 kg인지 구해 보세요.</t>
+    <t>김치 bkg를 만들려면 고춧가루 ag가 필요합니다. 김치 1kg를 만들기 위해 필요한 고춧가루는 몇 g인지 구해 보세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +467,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
